--- a/data/hotels_by_city/Houston/Houston_shard_259.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_259.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="776">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56110-d8869971-Reviews-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Hampton-Inn-Suites-La-Porte.h12741765.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2208 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r604038162-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>8869971</t>
+  </si>
+  <si>
+    <t>604038162</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Very nice and clean hotel</t>
+  </si>
+  <si>
+    <t>We went for my in laws 50th wedding anniversary with my family. The sylvan beach that is nearby is very nice. About an hour drive to Crystal beach. Lots of food and entertainment places within a 30 minute drive</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r603940548-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>603940548</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>This hotel was in a great location and was amazingly clean and updated. The breakfast was delicious too! The staff was friendly, the pool was nice, and we really enjoyed our quick trip to the Kemah area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r601644545-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>601644545</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Hampton Inn &amp; Suites LaPorte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although I thought it was a little strange that I was put in a wheel chair accessible room it turned out to be fine. I was just hoping that no one that really needed this room was turned away. It was still a nice room. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r598951178-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>598951178</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>La Porte Tx, an Industraial Area</t>
+  </si>
+  <si>
+    <t>Rooms were spacious,clean,comfy. No microwave,but a coffee pot..Flushing the commode can be VERY LOUD.. Shower low pressure/kind of tall to reach.Not your average contentinal breakfast. Almost like home. :) Breakfast was good. 6:30-10:00 am. Outdoor pool,and excercise room. Some kids on the top floors were running and stumping, "he got pay back, the next morning some one fell out of bed, followed by a loud scream..LOL...all and all nice welcoming stay. would book again..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r598009361-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>598009361</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel the night before a cruise this past week. When we arrived they had a confirmation for two of our 3 rooms but it showed that only two of them had been paid for.  The young lady at the desk made and received multiple phone calls trying to correct the situation. She did a great job and stayed on the phone until it was resolved.  The hotel was very clean and was in a very handy location.  The service was very good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r593731446-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>593731446</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>The hotel bought me flowers!!</t>
+  </si>
+  <si>
+    <t>I’ve spent an aggravating few months of work in LaPorte and have stayed exclusively at the Hampton. Knowing I was having a rough time on my project, my colleagues sent me some flowers to brighten my day. The box arrived on a Monday to the hotel but I had to delay my trip until Wednesday. When I checked in a gorgeous bouquet of sunflowers indeed brightened my room and made me smile after a long frustrating day at work. The next week at check out they were still gorgeous so I asked the assistant manager if they could keep them at the front desk and place them again for my Monday return. She asked if it was my birthday and I mentioned the tough weeks and then she said when they went to place in my room originally, the flowers were dead so she went over to Kroger’s and purchased more because she didn’t want me to get dead flowers on my birthday. The hotel replaced the flowers!!!  Spend your hotel dollars at a hotel with a heart!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I’ve spent an aggravating few months of work in LaPorte and have stayed exclusively at the Hampton. Knowing I was having a rough time on my project, my colleagues sent me some flowers to brighten my day. The box arrived on a Monday to the hotel but I had to delay my trip until Wednesday. When I checked in a gorgeous bouquet of sunflowers indeed brightened my room and made me smile after a long frustrating day at work. The next week at check out they were still gorgeous so I asked the assistant manager if they could keep them at the front desk and place them again for my Monday return. She asked if it was my birthday and I mentioned the tough weeks and then she said when they went to place in my room originally, the flowers were dead so she went over to Kroger’s and purchased more because she didn’t want me to get dead flowers on my birthday. The hotel replaced the flowers!!!  Spend your hotel dollars at a hotel with a heart!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r584638520-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>584638520</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Bang for your Buck!</t>
+  </si>
+  <si>
+    <t>Second stay here.  Rooms and bathrooms are super nice.  They have a free happy hour.  Staff is always friendly.  I also appreciate the store they have on hand where you can purchase late night drinks or snacks.  F'n Great hotel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Cocoa M, Guest Service Rep at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Second stay here.  Rooms and bathrooms are super nice.  They have a free happy hour.  Staff is always friendly.  I also appreciate the store they have on hand where you can purchase late night drinks or snacks.  F'n Great hotel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r584334668-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>584334668</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>this hotel was great Cocoa at check in was amazing and Mallory was awesome at check out.. I would recommend this hotel to anyone staying close to La Porte. Great Staff rooms were very clean and breakfast was great Kiki did a great jobMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Cocoa M, Guest Service Rep at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>this hotel was great Cocoa at check in was amazing and Mallory was awesome at check out.. I would recommend this hotel to anyone staying close to La Porte. Great Staff rooms were very clean and breakfast was great Kiki did a great jobMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r582068473-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>582068473</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Awesome experience!!</t>
+  </si>
+  <si>
+    <t>Love the location close to Kemah and Nasa space center.  The pool just needs a little more trees outside but we still enjoyed it, it was a hot day!! Staff and breakfast crew was great and helpful of guiding you around.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cocoa M, Guest Service Rep at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Love the location close to Kemah and Nasa space center.  The pool just needs a little more trees outside but we still enjoyed it, it was a hot day!! Staff and breakfast crew was great and helpful of guiding you around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r570830926-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>570830926</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Exceptional Stay</t>
+  </si>
+  <si>
+    <t>This will be my new spot when traveling to my hometown to visit my family. Well worth the money. I went to the San Luis Resort the same weekend and preferred this Hampton Inn to the overpriced San Luis!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Cocoa M, Guest Service Rep at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2018</t>
+  </si>
+  <si>
+    <t>This will be my new spot when traveling to my hometown to visit my family. Well worth the money. I went to the San Luis Resort the same weekend and preferred this Hampton Inn to the overpriced San Luis!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r569689815-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>569689815</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Beautiful, new feeling, wonderful staff!!</t>
+  </si>
+  <si>
+    <t>The rooms are beautiful and  Clean. The staff is amazing. It's nice that you're right next to the freeway. There's a beach 5 minutes  Away. You're close to kema boardwalk . You're away from all the traffic of Houston .MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniPeer, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>The rooms are beautiful and  Clean. The staff is amazing. It's nice that you're right next to the freeway. There's a beach 5 minutes  Away. You're close to kema boardwalk . You're away from all the traffic of Houston .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r568718550-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>568718550</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>A-OK new hotel</t>
+  </si>
+  <si>
+    <t>New hotel, reasonably priced, and convenient to the big oil refineries and polymer production sites in the area.  It's not hard to find as it sticks out alone in an empty lot like one of those utilitarian Soviet-era monoliths.  But the staff is friendly, the interiors are clean, the fitness room is equipped with enough cardio-machines (a couple each bicycles, treadmills, ellipticals) and dumb-bells up to 50 lbs, and they serve a hot, complimentary breakfast (western omelettes, sausages, and home fries on my visit).  The rooms are also adequate, clean and comfortable - the only issue I really had was that the soundproofing for the ceiling/floor of the room seemed thin as I could hear the guest above me walking about very easily.  Free wifi available.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniPeer, Guest Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>New hotel, reasonably priced, and convenient to the big oil refineries and polymer production sites in the area.  It's not hard to find as it sticks out alone in an empty lot like one of those utilitarian Soviet-era monoliths.  But the staff is friendly, the interiors are clean, the fitness room is equipped with enough cardio-machines (a couple each bicycles, treadmills, ellipticals) and dumb-bells up to 50 lbs, and they serve a hot, complimentary breakfast (western omelettes, sausages, and home fries on my visit).  The rooms are also adequate, clean and comfortable - the only issue I really had was that the soundproofing for the ceiling/floor of the room seemed thin as I could hear the guest above me walking about very easily.  Free wifi available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r555452571-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>555452571</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel close to the beach</t>
+  </si>
+  <si>
+    <t>The rooms are clean and the staff was very polite.  Location was close to the beach and restaurants.  Breakfast we simply but did the trick and my girls loved the pool! We had a very nice time and would defiantly go back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Cocoa M, other at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>The rooms are clean and the staff was very polite.  Location was close to the beach and restaurants.  Breakfast we simply but did the trick and my girls loved the pool! We had a very nice time and would defiantly go back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r555408061-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>555408061</t>
+  </si>
+  <si>
+    <t>Nice new clean</t>
+  </si>
+  <si>
+    <t>We stayed in LaPorte to attend a function at The Houston Yacht Club.  We picked the Hampton Inn .  It is located right next to I 146 but far enough back to avoid traffic noice.  It is new, nicely furnished, roomy, clean and includes  breakfast.  The price was very reasonable for all you got.  We had a view of the pool and a small kitchen and sitting area.  We would definitely stay there again and it was the best we have found in LaPorte.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>We stayed in LaPorte to attend a function at The Houston Yacht Club.  We picked the Hampton Inn .  It is located right next to I 146 but far enough back to avoid traffic noice.  It is new, nicely furnished, roomy, clean and includes  breakfast.  The price was very reasonable for all you got.  We had a view of the pool and a small kitchen and sitting area.  We would definitely stay there again and it was the best we have found in LaPorte.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r554279497-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>554279497</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>NEW DESIGN: NO LOCK ON THE BATHROOM DOOR!!!</t>
+  </si>
+  <si>
+    <t>The newly designed rooms have a new barn style sliding bathroom door that does not lock, so anybody can open it right up while you are sitting on the toilet.  Not to mention that when fully closed, there is a 1" gap that everybody in the room can see you on the toilet!!  Do not stay here if you value your privacy.MoreShow less</t>
+  </si>
+  <si>
+    <t>TwalekaJ, Guest Services Representative at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>The newly designed rooms have a new barn style sliding bathroom door that does not lock, so anybody can open it right up while you are sitting on the toilet.  Not to mention that when fully closed, there is a 1" gap that everybody in the room can see you on the toilet!!  Do not stay here if you value your privacy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r549364642-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>549364642</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>HHO</t>
+  </si>
+  <si>
+    <t>Easy and clean. Laundry service was great. They fold and pack you clothes to the tightest.  From the cleaning person to the breakfast I felt clean and comfortable.  When I go back in a week i hope my company puts me up there againMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Cocoa M, Guest Service Representative at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Easy and clean. Laundry service was great. They fold and pack you clothes to the tightest.  From the cleaning person to the breakfast I felt clean and comfortable.  When I go back in a week i hope my company puts me up there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r549017959-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>549017959</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay - Poorly Designed Restroom</t>
+  </si>
+  <si>
+    <t>As a Hilton honors member, I always stay at Hilton properties. This hotel has some positives and negatives. The hotel entrance has a very sharp 90 degree turn immediately as you turn into the driveway. I have no idea why. It makes no sense. The restrooms are ... designed to look nice but not as functional as they could be. The sink spout is in the top right corner so it’s incredibly awkward to try and wash your hands. Then it creates a ton of water all over the counter. The restroom door slides shut. There is no lock. And it doesn’t completely close. If you have kids this is a fun game of “let’s keep the door closed when ______  is in there.” It’s also great for sharing every noise in the restroom with the rest of the room. There’s no fan to help. The dining area only has 2 high chairs so if the 2 are taken you’ll have to wait for one. Now for the positives. Easy location to find. Nice staff. Clean room. Great quality for the price. Breakfast was good. The hotel was quiet and didn’t have a lot of noise in the hallways, even with the Christmas holiday. MoreShow less</t>
+  </si>
+  <si>
+    <t>Cocoa M, Guest Service Represtative at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded December 27, 2017</t>
+  </si>
+  <si>
+    <t>As a Hilton honors member, I always stay at Hilton properties. This hotel has some positives and negatives. The hotel entrance has a very sharp 90 degree turn immediately as you turn into the driveway. I have no idea why. It makes no sense. The restrooms are ... designed to look nice but not as functional as they could be. The sink spout is in the top right corner so it’s incredibly awkward to try and wash your hands. Then it creates a ton of water all over the counter. The restroom door slides shut. There is no lock. And it doesn’t completely close. If you have kids this is a fun game of “let’s keep the door closed when ______  is in there.” It’s also great for sharing every noise in the restroom with the rest of the room. There’s no fan to help. The dining area only has 2 high chairs so if the 2 are taken you’ll have to wait for one. Now for the positives. Easy location to find. Nice staff. Clean room. Great quality for the price. Breakfast was good. The hotel was quiet and didn’t have a lot of noise in the hallways, even with the Christmas holiday. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r544352187-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>544352187</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>nice new building/room</t>
+  </si>
+  <si>
+    <t>near the space center. very clean and nearly new building and rooms. very modern furnitures, fast internet. love the complimentary hot breakfast. the staffs are super friendly. would like to stay again if come to the same area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Cocoa M, Guest Service Representative at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>near the space center. very clean and nearly new building and rooms. very modern furnitures, fast internet. love the complimentary hot breakfast. the staffs are super friendly. would like to stay again if come to the same area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r537294679-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>537294679</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Great staff and service!!</t>
+  </si>
+  <si>
+    <t>I recently stayed 2 nights and from start to finish I was impressed with the hotel, staff, service, all around from housekeeping, and breakfast hostess. I have worked in hotel management at many different brands and notice very quickly the quality of the property. I would highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I recently stayed 2 nights and from start to finish I was impressed with the hotel, staff, service, all around from housekeeping, and breakfast hostess. I have worked in hotel management at many different brands and notice very quickly the quality of the property. I would highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r536467675-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>536467675</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Very Good! Great Customer Services. Love the rooms. Very Clean.</t>
+  </si>
+  <si>
+    <t>Great! Customer Services excellent. Rooms are very clean.I love staying at Hampton Inn. The breakfast is always fresh. Enjoyed my stay with family and friends. Hotel was close to the wedding ceremony. I highly recommend Hampton Inn and Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great! Customer Services excellent. Rooms are very clean.I love staying at Hampton Inn. The breakfast is always fresh. Enjoyed my stay with family and friends. Hotel was close to the wedding ceremony. I highly recommend Hampton Inn and Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r536437764-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>536437764</t>
+  </si>
+  <si>
+    <t>M. Miranda</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay, the rooms where clean the beds where comfortable there was a nice workout room and even though it was October the warm La Port  weather allowed the kids to have a blast in the pool. The staff was so nice, helpful and made you feel welcome MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay, the rooms where clean the beds where comfortable there was a nice workout room and even though it was October the warm La Port  weather allowed the kids to have a blast in the pool. The staff was so nice, helpful and made you feel welcome More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r531846693-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>531846693</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent staff despite hardships caused by Harvey</t>
+  </si>
+  <si>
+    <t>Any problems I had were addressed immediately and with a smile. A good location easy on and off the highway. Plenty of food and grocery nearby. Using the washer and dryer was an iffy and expensive proposition. Parking if you came home after 8 was very difficult. The bed was exceptionally comfortable with ample pillows and an extra blanket in the closet. Air conditioning works fabulously. Mostly quiet during evening hours. Breakfast was ample enough and varied enough that most people can find something to eat. Wi-Fi for me was an issue on going, though others in my party were able to use it effectively.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Any problems I had were addressed immediately and with a smile. A good location easy on and off the highway. Plenty of food and grocery nearby. Using the washer and dryer was an iffy and expensive proposition. Parking if you came home after 8 was very difficult. The bed was exceptionally comfortable with ample pillows and an extra blanket in the closet. Air conditioning works fabulously. Mostly quiet during evening hours. Breakfast was ample enough and varied enough that most people can find something to eat. Wi-Fi for me was an issue on going, though others in my party were able to use it effectively.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r531879299-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>531879299</t>
+  </si>
+  <si>
+    <t>Great hotel experience</t>
+  </si>
+  <si>
+    <t>Great experience staying at this hotel.  Rooms were very nice.  Beds and pillows were extremely comfortable.  Staff was friendly and helpful. Complimentary breakfast was great.  Would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great experience staying at this hotel.  Rooms were very nice.  Beds and pillows were extremely comfortable.  Staff was friendly and helpful. Complimentary breakfast was great.  Would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r531118226-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>531118226</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one night in September 2017, prior to our Carnival Cruise out of Galveston.  Hotel front desk staff were very friendly.  Hotel was very clean.  Beds were comfortable.  Free moring breakfast was very tasty and all items were served at their proper tempeture.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one night in September 2017, prior to our Carnival Cruise out of Galveston.  Hotel front desk staff were very friendly.  Hotel was very clean.  Beds were comfortable.  Free moring breakfast was very tasty and all items were served at their proper tempeture.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r505262769-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>505262769</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Excellent rooms/excellent service. Spoltless, Clean, and comfortable. Great breakfast and very quiet. Easy access to and from. Front desk staff was impeccable. Highly recommend. Great place to stay. Great price. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Excellent rooms/excellent service. Spoltless, Clean, and comfortable. Great breakfast and very quiet. Easy access to and from. Front desk staff was impeccable. Highly recommend. Great place to stay. Great price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r504949474-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>504949474</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>Tiffany made my phone reservation. She was extremely nice and patient. CoCo checked me in and she was extremely nice and helpful. The hotel location is the best. It was about 45 minutes from Schlitterbaun and 5-10 mins from the Kemah Boardwalk. I would  definitely stay again MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Tiffany made my phone reservation. She was extremely nice and patient. CoCo checked me in and she was extremely nice and helpful. The hotel location is the best. It was about 45 minutes from Schlitterbaun and 5-10 mins from the Kemah Boardwalk. I would  definitely stay again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r504585283-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>504585283</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Hampton Inn LaPorte, TX</t>
+  </si>
+  <si>
+    <t>This is a really nice place to spend a night or two. Obviously very new, at least it appears to be. Very clean with a well maintained outdoor pool. Great breakfast options too. Perfect place to stop if exploring SE Houston/ Galveston, including Kemah Boardwalk and space Center HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>This is a really nice place to spend a night or two. Obviously very new, at least it appears to be. Very clean with a well maintained outdoor pool. Great breakfast options too. Perfect place to stop if exploring SE Houston/ Galveston, including Kemah Boardwalk and space Center HoustonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r503305884-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>503305884</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>We stayed here for my daughter's wedding. We could not have been more pleased. Comfortable beds, great breakfast, super friendly staff, and great location. Our out of town guest were well pleased. It was a super fun weekend!   I highly recommend this hotel to anyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for my daughter's wedding. We could not have been more pleased. Comfortable beds, great breakfast, super friendly staff, and great location. Our out of town guest were well pleased. It was a super fun weekend!   I highly recommend this hotel to anyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r501118788-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>501118788</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>summer vac to beach</t>
+  </si>
+  <si>
+    <t>Beautiful hotel still had the new feeling. Rooms are clean and fresh, beds are comfy. Staff was very nice and friendly. The hotel amenities were great, internet, fitness center, breakfast, and the outdoor pool small but good. Close to everything, like the Boardwalk and beach. Great places to eat near hotel and staff gave great suggestions on places to eat and visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful hotel still had the new feeling. Rooms are clean and fresh, beds are comfy. Staff was very nice and friendly. The hotel amenities were great, internet, fitness center, breakfast, and the outdoor pool small but good. Close to everything, like the Boardwalk and beach. Great places to eat near hotel and staff gave great suggestions on places to eat and visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r498530946-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>498530946</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Front Desk personnel!!</t>
+  </si>
+  <si>
+    <t>Front Desk personnel really rude when she was checking me in. Then the next morning she was helping in kitchen and was also really rude and looked really upset. ( same girl that checked me in) other than her everyone else was really niceMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Front Desk personnel really rude when she was checking me in. Then the next morning she was helping in kitchen and was also really rude and looked really upset. ( same girl that checked me in) other than her everyone else was really niceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r492884443-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>492884443</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Very Enjoyable Stay and Wonderful Staff</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a year ago and it was just as nice as the first.  The rooms are large and the beds are very comfortable.  The staff is truly wonderful.  First, Ms. Connie does an amazing job for morning breakfast.  She was kind, friendly and assisted us in anyway.  Secondly,  we left a very important stuff bear in the hotel after we departed.  We were very distress when we noticed it was missing and called right away.  The kind lady working the front desk addressed  this right away.  She returned my call within 10 minutes letting us know that our special bear was located.  I cannot thank them enough for caring enough to go the extra mile for us.  I highly recommend this hotel and look forward to returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a year ago and it was just as nice as the first.  The rooms are large and the beds are very comfortable.  The staff is truly wonderful.  First, Ms. Connie does an amazing job for morning breakfast.  She was kind, friendly and assisted us in anyway.  Secondly,  we left a very important stuff bear in the hotel after we departed.  We were very distress when we noticed it was missing and called right away.  The kind lady working the front desk addressed  this right away.  She returned my call within 10 minutes letting us know that our special bear was located.  I cannot thank them enough for caring enough to go the extra mile for us.  I highly recommend this hotel and look forward to returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r492913875-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>492913875</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>Nice hotel great staff and fantastic value overall.  Will stay again.  Did not get the opportunity to check out the pool or fitness center.  Dining room was clean nice and comfortable. Close to highway so easy access to and from.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel great staff and fantastic value overall.  Will stay again.  Did not get the opportunity to check out the pool or fitness center.  Dining room was clean nice and comfortable. Close to highway so easy access to and from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r491878509-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>491878509</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Outstanding, as usual!</t>
+  </si>
+  <si>
+    <t>We are never disappointed in a Hampton Inn and Suites.  We've stayed in them all over the country.  The rooms are super and clean and the breakfast is normally fresh and delicious.  I especially appreciate the coffee bar with its flavored creamers and different kinds of coffee and tea. Almost anything one could want.  Overall, it's a real value for one's money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cocoa  M, Guest Service Representative at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>We are never disappointed in a Hampton Inn and Suites.  We've stayed in them all over the country.  The rooms are super and clean and the breakfast is normally fresh and delicious.  I especially appreciate the coffee bar with its flavored creamers and different kinds of coffee and tea. Almost anything one could want.  Overall, it's a real value for one's money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r484834240-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>484834240</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Place to stay</t>
+  </si>
+  <si>
+    <t>This Hotel was excellent in every way and i really enjoyed my stay.The staff was very professional and the food was great.I've traveled before and have stayed at many chains on business and this one is at the top of my list. Thanks for a great experienceMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded May 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2017</t>
+  </si>
+  <si>
+    <t>This Hotel was excellent in every way and i really enjoyed my stay.The staff was very professional and the food was great.I've traveled before and have stayed at many chains on business and this one is at the top of my list. Thanks for a great experienceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r481140544-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>481140544</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>The manager was very helpful and courteous, asking from the time we checked in to the time we checked out if there was anything we needed. I felt very welcome there.  Although only 1 night, it felt like being at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>The manager was very helpful and courteous, asking from the time we checked in to the time we checked out if there was anything we needed. I felt very welcome there.  Although only 1 night, it felt like being at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r480791230-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>480791230</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>Hotel is recently built and is amazing! I was so surprised by How pretty this Hotel was, and the staff were amazing. Great sleep, and liked the late Check Out. Stayed for business and I am Hoping I get an opportunity to go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is recently built and is amazing! I was so surprised by How pretty this Hotel was, and the staff were amazing. Great sleep, and liked the late Check Out. Stayed for business and I am Hoping I get an opportunity to go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r477255936-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>477255936</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t>Nice clean Hampton Inn.  Great breakfast &amp; people!  Will stay there again! You can sleep well here, no noise around or inside hotel. This property seems to be new, I don't believe it has been here longer than 5 years.  MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Nice clean Hampton Inn.  Great breakfast &amp; people!  Will stay there again! You can sleep well here, no noise around or inside hotel. This property seems to be new, I don't believe it has been here longer than 5 years.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r473072642-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>473072642</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel and Staff</t>
+  </si>
+  <si>
+    <t>This Hampton Inn was easy on/off highway, Very Clean, Friendly and Very Comfortable Bed! Close to many great places to eat, shop and work. I would highly recommend this Hotel to all my friends and family that would be in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>This Hampton Inn was easy on/off highway, Very Clean, Friendly and Very Comfortable Bed! Close to many great places to eat, shop and work. I would highly recommend this Hotel to all my friends and family that would be in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r472820514-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>472820514</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Clean and bright with great service</t>
+  </si>
+  <si>
+    <t>This Hampton in LaPorte was halfway between the different attractions we wanted to visit in the Houston area (Galveston, Buffalo Bayou Park &amp; Houston Space Center). The location (right off the freeway exit) was a bit strange, but the property itself was exceedingly clean and well decorated, with comfortable beds and excellent service. Breakfast was the typical Hampton breakfast. If we were to visit Houston again, we'd probably opt to stay in Webster for a greater variety of restaurants, etc., but this hotel was new and quite lovely.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Hampton in LaPorte was halfway between the different attractions we wanted to visit in the Houston area (Galveston, Buffalo Bayou Park &amp; Houston Space Center). The location (right off the freeway exit) was a bit strange, but the property itself was exceedingly clean and well decorated, with comfortable beds and excellent service. Breakfast was the typical Hampton breakfast. If we were to visit Houston again, we'd probably opt to stay in Webster for a greater variety of restaurants, etc., but this hotel was new and quite lovely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r470567410-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>470567410</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Stay during Crawfish Festival - March 24-26</t>
+  </si>
+  <si>
+    <t>Stayed at the Hampton Inn &amp; Suites during the Crawfish Festival in Kemah, TX.  The breakfast was hot and very good.  The staff and the hotel is very accommodating and professional.  The room was very clean and spacious.  Kroger supermarket is close.  Close to Sylan Beach; Antique Shops on Main Street.  The San Jacinto Battleground State Historic site is approximately 12 miles away.  Will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at the Hampton Inn &amp; Suites during the Crawfish Festival in Kemah, TX.  The breakfast was hot and very good.  The staff and the hotel is very accommodating and professional.  The room was very clean and spacious.  Kroger supermarket is close.  Close to Sylan Beach; Antique Shops on Main Street.  The San Jacinto Battleground State Historic site is approximately 12 miles away.  Will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r469022793-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>469022793</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>What great staff and service</t>
+  </si>
+  <si>
+    <t>The stay was made pleasant due to the extreme customer service provided by all the staff at the hotel Only downfall was no bar or restaurant as I was there for 25 days so had to go out to eat or have a drink after an hard day working. But the staff service made up for itMoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>The stay was made pleasant due to the extreme customer service provided by all the staff at the hotel Only downfall was no bar or restaurant as I was there for 25 days so had to go out to eat or have a drink after an hard day working. But the staff service made up for itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r468506946-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>468506946</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel and excellent service.</t>
+  </si>
+  <si>
+    <t>This is my second stay at a Hampton hotel and as always it has been a pleasant experience for all of us. Our hotel host Tiffany at the front desk is such a wonderful lady and helped us with our many questions regarding our stay and destinations we have in mind. She is very knowledgeable and so are the other hotel personnel. Highly recommended!  Hotel is very nice and clean and fairly new.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guests Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>This is my second stay at a Hampton hotel and as always it has been a pleasant experience for all of us. Our hotel host Tiffany at the front desk is such a wonderful lady and helped us with our many questions regarding our stay and destinations we have in mind. She is very knowledgeable and so are the other hotel personnel. Highly recommended!  Hotel is very nice and clean and fairly new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r452430745-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>452430745</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>LaPorte Hampton was excellent</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay. The staff was excellent. They were very friendly and acted as if they had known me for a while. Overall experience was very good. I would definitely stay here again, and probably will soon. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay. The staff was excellent. They were very friendly and acted as if they had known me for a while. Overall experience was very good. I would definitely stay here again, and probably will soon. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r451822124-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>451822124</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Immaculate hotel. We are building a home in LaPorte and would not stay any place else. Staff is incredibly warm, welcoming and accommodating. Hotel and rooms are immaculate and comfortable. This place is our home away from home. MoreShow less</t>
+  </si>
+  <si>
+    <t>Immaculate hotel. We are building a home in LaPorte and would not stay any place else. Staff is incredibly warm, welcoming and accommodating. Hotel and rooms are immaculate and comfortable. This place is our home away from home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r446312737-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>446312737</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Good location close to nice coastal towns</t>
+  </si>
+  <si>
+    <t>Family stay for a week, breakfast choices varied day to day. Great location, great staff! Close to bay beaches, fishing, shopping, restaurants, and entertainment. Hotel is right off interstate on non-busy road. Stepping stones: La Port&gt;Seabrook&gt;Kemah&gt;Galveston MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded January 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2017</t>
+  </si>
+  <si>
+    <t>Family stay for a week, breakfast choices varied day to day. Great location, great staff! Close to bay beaches, fishing, shopping, restaurants, and entertainment. Hotel is right off interstate on non-busy road. Stepping stones: La Port&gt;Seabrook&gt;Kemah&gt;Galveston More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r442732230-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>442732230</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Best Hampton I've seen...</t>
+  </si>
+  <si>
+    <t>...and I've stayed in a LOT of Hampton properties.  Very clean, well-maintained; wide hallways, large breakfast area.  Decent variety in the pantry area, quick elevators, plenty of parking.  Room was quiet and clean; the wifi gave me no troubles.  I like the variety of USB charging ports as well as electrical outlets.  Close by, there is a grocery store with Starbucks inside, several fast food places, and a Waffle House .  I will definitely be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>...and I've stayed in a LOT of Hampton properties.  Very clean, well-maintained; wide hallways, large breakfast area.  Decent variety in the pantry area, quick elevators, plenty of parking.  Room was quiet and clean; the wifi gave me no troubles.  I like the variety of USB charging ports as well as electrical outlets.  Close by, there is a grocery store with Starbucks inside, several fast food places, and a Waffle House .  I will definitely be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r441388430-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>441388430</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Fresh and bright hotel. New construction. Easy parking w access to highway. Great breakfast area and food choices. Bottomless coffee pot!!!Super helpful staff.Will be coming back as often as I can.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Fresh and bright hotel. New construction. Easy parking w access to highway. Great breakfast area and food choices. Bottomless coffee pot!!!Super helpful staff.Will be coming back as often as I can.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r439664199-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>439664199</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Nice Cold rooms</t>
+  </si>
+  <si>
+    <t>The A/C was phenomenal actual got my room super cold and kept it that way. My husband sleeps very hot so in most hotels rooms they just don't get cold enough for him, or once they do they shut off due to being motion activated. This was the first hotel we have stayed at that the room actual got below 70 degrees and stayed there. It was lovelyMoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded January 14, 2017</t>
+  </si>
+  <si>
+    <t>The A/C was phenomenal actual got my room super cold and kept it that way. My husband sleeps very hot so in most hotels rooms they just don't get cold enough for him, or once they do they shut off due to being motion activated. This was the first hotel we have stayed at that the room actual got below 70 degrees and stayed there. It was lovelyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r435127519-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>435127519</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Refreshing hotel</t>
+  </si>
+  <si>
+    <t>We found this hotel about 3:00am while staying at a horrible hotel in Webster. We booked online and couldn't wait to get there the next day!  Toye, the manager, greeted us with a smile. She informed us of the area and events of the weekend in the surrounding areas. We were there to just relax. She gave us helpful information on our travel times as we had planned an evening in Kemah. The room was so refreshing! We had come from a horrible hotel in Webster and it was like Toye rolled out the red carpet for us! The room was amazing! Clean, spacious and updated! Wonderfully refreshing for our couples get away! We didn't want to leave. We will definitely stay here again! Thank you Toye and  the Hampton Inn for an unforgettable weekend!MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>We found this hotel about 3:00am while staying at a horrible hotel in Webster. We booked online and couldn't wait to get there the next day!  Toye, the manager, greeted us with a smile. She informed us of the area and events of the weekend in the surrounding areas. We were there to just relax. She gave us helpful information on our travel times as we had planned an evening in Kemah. The room was so refreshing! We had come from a horrible hotel in Webster and it was like Toye rolled out the red carpet for us! The room was amazing! Clean, spacious and updated! Wonderfully refreshing for our couples get away! We didn't want to leave. We will definitely stay here again! Thank you Toye and  the Hampton Inn for an unforgettable weekend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r433069117-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>433069117</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Excellent Place to Stay!</t>
+  </si>
+  <si>
+    <t>We were Extremely Satisfied with Our Room and the Staff! The breakfast was very good and offered a nice selection. The room was comfortable and the free wifi was fast. I would recommend this hotel to anyone looking to stay in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>We were Extremely Satisfied with Our Room and the Staff! The breakfast was very good and offered a nice selection. The room was comfortable and the free wifi was fast. I would recommend this hotel to anyone looking to stay in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r432057613-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>432057613</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Wonderful stay!!!</t>
+  </si>
+  <si>
+    <t>This hotel is the best!  The breakfast was free and fabulous. Not just the usual carbs, but REAL food. Bacon, scrambled eggs with cheese, boiled eggs, muffins, cereals, waffles, fresh fruit, yogurt, etc.  And the staff went out of their way to make us feel welcome. Room was well appointed and nicely decorated. Highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Service  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is the best!  The breakfast was free and fabulous. Not just the usual carbs, but REAL food. Bacon, scrambled eggs with cheese, boiled eggs, muffins, cereals, waffles, fresh fruit, yogurt, etc.  And the staff went out of their way to make us feel welcome. Room was well appointed and nicely decorated. Highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r431170106-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>431170106</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>They have an awesome staff and great rooms I would recommend anyone to stay with them my family and I will most definitely be going back they accommodated every need I had and was able to help with any thing I needed thanks again y'all MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>They have an awesome staff and great rooms I would recommend anyone to stay with them my family and I will most definitely be going back they accommodated every need I had and was able to help with any thing I needed thanks again y'all More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r430173324-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>430173324</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>LaPorte, TX stay</t>
+  </si>
+  <si>
+    <t>Most enjoyable stay, great hotel, great staff and service.  Staff took care of every need, and were most friendly and helpful. One year old, extremey well kept, convenient location. Most comfortable, relaxing stay.  Will definately stay there when in LaPorte in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded October 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2016</t>
+  </si>
+  <si>
+    <t>Most enjoyable stay, great hotel, great staff and service.  Staff took care of every need, and were most friendly and helpful. One year old, extremey well kept, convenient location. Most comfortable, relaxing stay.  Will definately stay there when in LaPorte in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r427377598-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>427377598</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Amazing staff and great room!</t>
+  </si>
+  <si>
+    <t>Everything was extremely clean, breakfast was delicious and the entire staff, from housekeeping to front desk reps were very attentive and at my service at all times! Will definitely book at Hamptons Inn and Suites-La Porte again! MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded October 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2016</t>
+  </si>
+  <si>
+    <t>Everything was extremely clean, breakfast was delicious and the entire staff, from housekeeping to front desk reps were very attentive and at my service at all times! Will definitely book at Hamptons Inn and Suites-La Porte again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r425277638-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>425277638</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Hotel was excellent.  Staff was friendly and helpful.  They took a personal interest in making sure our stay was a great one.  Hotel met the Hilton brand standards.  Breakfast was very good.  They even had evening happy hours Mon - Wed.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded October 15, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was excellent.  Staff was friendly and helpful.  They took a personal interest in making sure our stay was a great one.  Hotel met the Hilton brand standards.  Breakfast was very good.  They even had evening happy hours Mon - Wed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r424454323-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>424454323</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfortable.</t>
+  </si>
+  <si>
+    <t>Fantastic bedding and overall clean environment. Guest services and amenities are top notch and very helpful. The surrounding area was a bit industrial, but local dives within close proximity of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Fantastic bedding and overall clean environment. Guest services and amenities are top notch and very helpful. The surrounding area was a bit industrial, but local dives within close proximity of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r421436500-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>421436500</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Great Stays</t>
+  </si>
+  <si>
+    <t>I have always enjoyed Hampton stays when traveling on business or personal activities.  This site was no less accommodating.  Friendly staff, great arrangements, and no hassles. Really convenient to businesses on Fairmont as well as facing less traffic than you'd think. Thanks again Hampton!MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded September 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2016</t>
+  </si>
+  <si>
+    <t>I have always enjoyed Hampton stays when traveling on business or personal activities.  This site was no less accommodating.  Friendly staff, great arrangements, and no hassles. Really convenient to businesses on Fairmont as well as facing less traffic than you'd think. Thanks again Hampton!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r417296332-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>417296332</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Always a pleasure.</t>
+  </si>
+  <si>
+    <t>Very clean with friendly staff. A good breakfast. Made me feel like they wanted me there. A top of the line Hotel. You will enjoy your stay. Peaceful and quite. Would stay again when back in this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Very clean with friendly staff. A good breakfast. Made me feel like they wanted me there. A top of the line Hotel. You will enjoy your stay. Peaceful and quite. Would stay again when back in this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r417247702-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>417247702</t>
+  </si>
+  <si>
+    <t>Awesome!!!</t>
+  </si>
+  <si>
+    <t>Spacious, clean, well stocked bathroom, beautifully decorated room, extra charging stations by every lamp in the room.  Bed was comfortable, clean sheets and comforter. Had down and foam pillows. Very spacious room and comfortable couch. Great flat screen TV. MoreShow less</t>
+  </si>
+  <si>
+    <t>Spacious, clean, well stocked bathroom, beautifully decorated room, extra charging stations by every lamp in the room.  Bed was comfortable, clean sheets and comforter. Had down and foam pillows. Very spacious room and comfortable couch. Great flat screen TV. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r415466364-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>415466364</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Had a great stay. We were greeted by an extremely helpful and pleasant employee at the front desk. Beautiful hotel, quiet clean, great beds and linen and  complimentary breakfast and wifi and an extremely helpful staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a great stay. We were greeted by an extremely helpful and pleasant employee at the front desk. Beautiful hotel, quiet clean, great beds and linen and  complimentary breakfast and wifi and an extremely helpful staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r408023333-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>408023333</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>Fairly new hotel. Staff was very friendly and the room was clean and modern. Very up to date. And the complimentary breakfast was good.  We used the pool and it was clean and fresh towels available  at the pool area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Fairly new hotel. Staff was very friendly and the room was clean and modern. Very up to date. And the complimentary breakfast was good.  We used the pool and it was clean and fresh towels available  at the pool area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r406635113-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>406635113</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights. Room was clean. Staff was friendly, but beds were so hard my husband, kids, and I could not sleep well. We didn't try the breakfast so no comments there. We didn't try the pool because it was raining. MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights. Room was clean. Staff was friendly, but beds were so hard my husband, kids, and I could not sleep well. We didn't try the breakfast so no comments there. We didn't try the pool because it was raining. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r406436488-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>406436488</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Great Rooms and Staff</t>
+  </si>
+  <si>
+    <t>The Hampton Inn LaPorte was very clean and accommodating. The king suite was magnificent. The layout of the room was very nice. We checked in late, as we had an issue with the Candlewood Inn next door. The night clerk was very friendly and worked quickly to get us into the room so we could get to sleep. The complimentary breakfast was very good, love fresh waffles.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>The Hampton Inn LaPorte was very clean and accommodating. The king suite was magnificent. The layout of the room was very nice. We checked in late, as we had an issue with the Candlewood Inn next door. The night clerk was very friendly and worked quickly to get us into the room so we could get to sleep. The complimentary breakfast was very good, love fresh waffles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r403475531-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>403475531</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Top Ten</t>
+  </si>
+  <si>
+    <t>Very friendly stay, will stay the next time in this Hotel as it was very satisfying for me &amp; my family. Pool is very nice Breakfast is very delicious the only thing is that people don't know how to limit their food, but that's ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded August 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2016</t>
+  </si>
+  <si>
+    <t>Very friendly stay, will stay the next time in this Hotel as it was very satisfying for me &amp; my family. Pool is very nice Breakfast is very delicious the only thing is that people don't know how to limit their food, but that's ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r400508594-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>400508594</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>The best</t>
+  </si>
+  <si>
+    <t>The best I will go back again The best customer service ever had in a little while ago great food good breakfasts the room work history me to clea The best customer service ever had in the lead a while ago great food good breakfasts the room where extremely clean and very convenient location close to highway thank you very muchMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded August 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2016</t>
+  </si>
+  <si>
+    <t>The best I will go back again The best customer service ever had in a little while ago great food good breakfasts the room work history me to clea The best customer service ever had in the lead a while ago great food good breakfasts the room where extremely clean and very convenient location close to highway thank you very muchMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r399824175-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>399824175</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>quick  overnight</t>
+  </si>
+  <si>
+    <t>As I had a big meeting and event all day to which I had to travel directly from the airport that morning, it was critical that I had a totally reserved room for 10PM check in and a room that was perfect as I would only get 4 hours of sleep at best before flying out the next morning.  check, check and check.MoreShow less</t>
+  </si>
+  <si>
+    <t>As I had a big meeting and event all day to which I had to travel directly from the airport that morning, it was critical that I had a totally reserved room for 10PM check in and a room that was perfect as I would only get 4 hours of sleep at best before flying out the next morning.  check, check and check.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r396876236-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>396876236</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Visiting family</t>
+  </si>
+  <si>
+    <t>Brand New hotel.  The staff was very helpful and the morning breakfast was excellent.  The pool area was very nice and very clean. I would rank this Hampton Hotel as one of the best Hamptons Hotels I have stayed in. I would certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand New hotel.  The staff was very helpful and the morning breakfast was excellent.  The pool area was very nice and very clean. I would rank this Hampton Hotel as one of the best Hamptons Hotels I have stayed in. I would certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r397461854-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>397461854</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>great stay at this new hotel!  great location, easy access to Kemah.  I love the new look of the bathrooms.  i'll stay here again for sure!   I was here on business and the internet worked well, easy to use TV remove except it's missing a sleeper timer!  Breakfast was good each day and the Manager happy hour was great!  and the workout facility had a lot to use!MoreShow less</t>
+  </si>
+  <si>
+    <t>great stay at this new hotel!  great location, easy access to Kemah.  I love the new look of the bathrooms.  i'll stay here again for sure!   I was here on business and the internet worked well, easy to use TV remove except it's missing a sleeper timer!  Breakfast was good each day and the Manager happy hour was great!  and the workout facility had a lot to use!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r395334140-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>395334140</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>comfortable and clean</t>
+  </si>
+  <si>
+    <t>This hotel was clean, comfortable. Had great customer service - very friendly and helpful staff. One of the better free breakfasts we have ever had! Pool area was clean. Ran out of towels and the staff was quick to replenish them.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded July 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was clean, comfortable. Had great customer service - very friendly and helpful staff. One of the better free breakfasts we have ever had! Pool area was clean. Ran out of towels and the staff was quick to replenish them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r392262928-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>392262928</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>The hotel staff was very friendly. Tiffani, Toye, Kiki made our stay a personal experience.  We did not meet any staff member who did not acknowledge our presence.  The hotel is modern and clean. The breakfast bar is the best we have ever experienced with a wide variety of options in foods. Easy access to Highway 146. We WILL be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded July 23, 2016</t>
+  </si>
+  <si>
+    <t>The hotel staff was very friendly. Tiffani, Toye, Kiki made our stay a personal experience.  We did not meet any staff member who did not acknowledge our presence.  The hotel is modern and clean. The breakfast bar is the best we have ever experienced with a wide variety of options in foods. Easy access to Highway 146. We WILL be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r392001316-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>392001316</t>
+  </si>
+  <si>
+    <t>Perfection.</t>
+  </si>
+  <si>
+    <t>Great experience for our family vacation at the hotel! Clean rooms, good breakfast, coffee all day. Very please and will most certainly return for another visit. Cost was not too bad for the room and service we received. Along with 2 toddlers the hotel was very accommodating. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great experience for our family vacation at the hotel! Clean rooms, good breakfast, coffee all day. Very please and will most certainly return for another visit. Cost was not too bad for the room and service we received. Along with 2 toddlers the hotel was very accommodating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r391290124-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>391290124</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Great staffVery nice clean hotel. Great location. Breakfast was great  pool was very clean and well stocked with towels every day. Was a great way to unwind after being at the hospital with family. Laundry was clean MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guset service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded July 23, 2016</t>
+  </si>
+  <si>
+    <t>Great staffVery nice clean hotel. Great location. Breakfast was great  pool was very clean and well stocked with towels every day. Was a great way to unwind after being at the hospital with family. Laundry was clean More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r386867608-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>386867608</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel for visit to San Jacinto site</t>
+  </si>
+  <si>
+    <t>The hotel was very clean, and the customer service was great.Everyone was very friendly. There werent very many restaurants around there , but a 15 minute drive to kemah solved that problem.  the room was comfortable and the AC worked great.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded July 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was very clean, and the customer service was great.Everyone was very friendly. There werent very many restaurants around there , but a 15 minute drive to kemah solved that problem.  the room was comfortable and the AC worked great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r386188972-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>386188972</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>La Porte Houston Hampton Inn</t>
+  </si>
+  <si>
+    <t>This is a new facility and was really nice.  I like the new decor.  We will not return until the bench in the roll-in shower is raised to ADA standards:  18-20 inches from the floor.  An inspector should have caught this error.  It is too low.  I am totally disabled.  My husband could never lift me back to the wheelchair.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded July 4, 2016</t>
+  </si>
+  <si>
+    <t>This is a new facility and was really nice.  I like the new decor.  We will not return until the bench in the roll-in shower is raised to ADA standards:  18-20 inches from the floor.  An inspector should have caught this error.  It is too low.  I am totally disabled.  My husband could never lift me back to the wheelchair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r386076568-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>386076568</t>
+  </si>
+  <si>
+    <t>Aewsome Pre-cruse stay</t>
+  </si>
+  <si>
+    <t>We stayed one night before our RC cruise. There were only King rooms with a pullout available so I was nervous. But, the room was large and well laid out, my 15 year old son was comfortable on the pullout.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night before our RC cruise. There were only King rooms with a pullout available so I was nervous. But, the room was large and well laid out, my 15 year old son was comfortable on the pullout.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r384856114-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>384856114</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Great stay, convenient hotel</t>
+  </si>
+  <si>
+    <t>Everything was efficient, clean and tidy. Great breakfast, great "lobby" area. We were there for a baseball tournament and it was convenient to find, a good value and very easy to deal with. No problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was efficient, clean and tidy. Great breakfast, great "lobby" area. We were there for a baseball tournament and it was convenient to find, a good value and very easy to deal with. No problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r384120044-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>384120044</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>This was an overnight stay as we had a family venue to attend nearby. The hotel is very nice and clean. The only problem we had was that the AC didn't work properly. We woke up several times in the middle of the night because it was hot. Checked the AC and it was blowing warm air. The controls were properly set but it wasn't cooling. Very uncomfortable stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>This was an overnight stay as we had a family venue to attend nearby. The hotel is very nice and clean. The only problem we had was that the AC didn't work properly. We woke up several times in the middle of the night because it was hot. Checked the AC and it was blowing warm air. The controls were properly set but it wasn't cooling. Very uncomfortable stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r383975982-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>383975982</t>
+  </si>
+  <si>
+    <t>Nice and very clean.</t>
+  </si>
+  <si>
+    <t>Would definitely stay here again. We stayed here before heading to Galveston on a cruise. Will stay again. Not too far from the cruise terminal. Used some honors points and still had a nice room. Friendly staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>Would definitely stay here again. We stayed here before heading to Galveston on a cruise. Will stay again. Not too far from the cruise terminal. Used some honors points and still had a nice room. Friendly staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r383028200-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>383028200</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Great race accommodations</t>
+  </si>
+  <si>
+    <t>Check in was simple. I had Hilton Honors so I had a room upgrade! The room was gigantic!! It was perfect for us. We had a triathlon event the next day and we had plenty of room to store both of our bikes and all our gear, food, etc... We had the microwave, refrigerator, and standard coffee maker. The furniture and decor was modern and looked upscale. The room took a while to cool down enough for good sleep. I really liked this hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Check in was simple. I had Hilton Honors so I had a room upgrade! The room was gigantic!! It was perfect for us. We had a triathlon event the next day and we had plenty of room to store both of our bikes and all our gear, food, etc... We had the microwave, refrigerator, and standard coffee maker. The furniture and decor was modern and looked upscale. The room took a while to cool down enough for good sleep. I really liked this hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r380741632-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>380741632</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>our stay at Hampton Suites Laporte Texas</t>
+  </si>
+  <si>
+    <t>We were welcomed by the staff and helped in every way the facility was clean and very well ran , staff was most helpful and informative of local events. the complimentary breakfast was hot and well prepared the dining area was very clean and well appointed, coffee bar was well stocked and coffee was freshMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>We were welcomed by the staff and helped in every way the facility was clean and very well ran , staff was most helpful and informative of local events. the complimentary breakfast was hot and well prepared the dining area was very clean and well appointed, coffee bar was well stocked and coffee was freshMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r380095293-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>380095293</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Couples getaway</t>
+  </si>
+  <si>
+    <t>In town for a wedding in Kemah. Very welcoming hotel in a great area. New hotel that opened in December. Very well maintained,  friendly staff and highly recommend. If ever in the area again, I will definitely stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>In town for a wedding in Kemah. Very welcoming hotel in a great area. New hotel that opened in December. Very well maintained,  friendly staff and highly recommend. If ever in the area again, I will definitely stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r378565883-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>378565883</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Best Hotel Experience!</t>
+  </si>
+  <si>
+    <t>We stayed at the Hampton La Porte because all of the hotels in Galveston were book for the weekend we left for our cruise. The experience was OUTSTANDING!! Friendly helpful staff!! Clean and beautiful rooms! The beds were perfect! We were more than pleasantly surprised! It was worth the extra drive and we would do it again!  MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded June 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Hampton La Porte because all of the hotels in Galveston were book for the weekend we left for our cruise. The experience was OUTSTANDING!! Friendly helpful staff!! Clean and beautiful rooms! The beds were perfect! We were more than pleasantly surprised! It was worth the extra drive and we would do it again!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r376628676-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>376628676</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>We stayed for three nights at the Hampton Inn in La Porte, Tx for a family gathering.  The hotel was very clean and quiet, the staff was helpful, friendly and courteous.  The room was spotless.  The breakfast buffet was great.  All of the items were filled and the area was kept very clean.  The breakfast staff did a fantastic job keeping up with the morning rush!MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Services  at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>We stayed for three nights at the Hampton Inn in La Porte, Tx for a family gathering.  The hotel was very clean and quiet, the staff was helpful, friendly and courteous.  The room was spotless.  The breakfast buffet was great.  All of the items were filled and the area was kept very clean.  The breakfast staff did a fantastic job keeping up with the morning rush!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r376320301-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>376320301</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>This location was great, right off of the highway, convenient to restaurants and everything in between. The staff was beyond amazing, everyone had a smile on their faces and it seemed as though they truly enjoyed their jobs.MoreShow less</t>
+  </si>
+  <si>
+    <t>This location was great, right off of the highway, convenient to restaurants and everything in between. The staff was beyond amazing, everyone had a smile on their faces and it seemed as though they truly enjoyed their jobs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r368351609-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>368351609</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Hampton Inn LaPorte</t>
+  </si>
+  <si>
+    <t>Amazing stay! Extremely courteous staff, the hotel itself and rooms were very very clean, well appointed and the location of the hotel convenient to anything and everything. It is a new hotel. I liked that all the doors required a key card to get in. I felt safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Johanna R, Guest service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Amazing stay! Extremely courteous staff, the hotel itself and rooms were very very clean, well appointed and the location of the hotel convenient to anything and everything. It is a new hotel. I liked that all the doors required a key card to get in. I felt safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r366850316-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>366850316</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Weekend in Houston</t>
+  </si>
+  <si>
+    <t>During my business trip I stayed three days in Hampton Inn. Hotel is close to highway. You can reach different attractions in the area of Houston easily.The rooms are very nice and clean. Staff are very friendly. Bar or restaurant is not availabel. The breakfirst is served on plastic dishes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Johanna R, guest service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>During my business trip I stayed three days in Hampton Inn. Hotel is close to highway. You can reach different attractions in the area of Houston easily.The rooms are very nice and clean. Staff are very friendly. Bar or restaurant is not availabel. The breakfirst is served on plastic dishes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r365260612-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>365260612</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Very nice new hotel</t>
+  </si>
+  <si>
+    <t>Best hotel in the area.  Beautiful king room, with large bathroom. Right off the exit on the service road, however still not on maps program correctly.  Easy to find though. Next time to La Porte, only staying there! MoreShow less</t>
+  </si>
+  <si>
+    <t>Johanna R, Guest Service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Best hotel in the area.  Beautiful king room, with large bathroom. Right off the exit on the service road, however still not on maps program correctly.  Easy to find though. Next time to La Porte, only staying there! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r363538690-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>363538690</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Good location for cruises</t>
+  </si>
+  <si>
+    <t>The hotel was in a good location and located very close to a number of restaurants both within walking and driving distance.  The rooms are spacious and clean.  The breakfast offers more than just cereal and toast and it very good.  They offer free shuttle service to the Port for cruises and offer onsite parking which saves money.  Even if you have to pay it is half of what they charge to park at the Port and they don't charge if you stay the night on your return.  The only downside I had was noisy sports teams staying and they were very loud making it hard to sleep.  I don't believe this is normal and if not for that would have been extremely satified with everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>TiffaniHOULA, Guest Service at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was in a good location and located very close to a number of restaurants both within walking and driving distance.  The rooms are spacious and clean.  The breakfast offers more than just cereal and toast and it very good.  They offer free shuttle service to the Port for cruises and offer onsite parking which saves money.  Even if you have to pay it is half of what they charge to park at the Port and they don't charge if you stay the night on your return.  The only downside I had was noisy sports teams staying and they were very loud making it hard to sleep.  I don't believe this is normal and if not for that would have been extremely satified with everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r362662300-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>362662300</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Hotel review</t>
+  </si>
+  <si>
+    <t>Excellent hotel and staff ,the staff was very helpful for directions for entertainment around Houston area .The hotel was in a good closet to downtown which was approximately 30 minutes and 30 or 40 minutes to airport. We enjoyed the stay and would stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Excellent hotel and staff ,the staff was very helpful for directions for entertainment around Houston area .The hotel was in a good closet to downtown which was approximately 30 minutes and 30 or 40 minutes to airport. We enjoyed the stay and would stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r362693625-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>362693625</t>
+  </si>
+  <si>
+    <t>This was a very clean and nice hotel. Will definitely stay there again. Very convenient to the store and places to eat.The only ting that would make it better is to have some type of meat for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Monica G, Director of Sales at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>This was a very clean and nice hotel. Will definitely stay there again. Very convenient to the store and places to eat.The only ting that would make it better is to have some type of meat for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r359892095-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>359892095</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Not The Usual Hampton Quality</t>
+  </si>
+  <si>
+    <t>Don't expect much service from this hotel.  Cold hot dogs, poorly stocked snacks for purchase, flimsy pillows and nonexistent staff at early checkout made for a poor experience.  On the plus side the property was new and had a well equipped fitness center and satellite tv.  The GM seems to care and I expect the hotel will improve.MoreShow less</t>
+  </si>
+  <si>
+    <t>Don't expect much service from this hotel.  Cold hot dogs, poorly stocked snacks for purchase, flimsy pillows and nonexistent staff at early checkout made for a poor experience.  On the plus side the property was new and had a well equipped fitness center and satellite tv.  The GM seems to care and I expect the hotel will improve.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r359599447-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>359599447</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, conviently located</t>
+  </si>
+  <si>
+    <t>First of all... My first time to La Porte.  I'm always tentative when staying around Houston just because it is such a large spread out city.  I had training at the San Jacinto College Maritime Campus which was only 5 minutes away.  So my first task was finding somewhere close.  And this location was perfect.  Secondly, finding a nice Hotel is important.  This was a great stay.  It is new modern building and very well kept.  Room was spotless every day.  And, for those of us of a certain age, the mattress was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all... My first time to La Porte.  I'm always tentative when staying around Houston just because it is such a large spread out city.  I had training at the San Jacinto College Maritime Campus which was only 5 minutes away.  So my first task was finding somewhere close.  And this location was perfect.  Secondly, finding a nice Hotel is important.  This was a great stay.  It is new modern building and very well kept.  Room was spotless every day.  And, for those of us of a certain age, the mattress was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r357486324-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>357486324</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Fantastic Family Hotel</t>
+  </si>
+  <si>
+    <t>Hampton Inn &amp; Suites, went out of their way to make sure our family vacation was a memorable one.  We felt right at home and the hotel staff was always courteous, kind, knowledgeable, and polite.  We have a son with autism, and the staff did a wonderful job of making him feel great during our stay there.  I would definitely use this hotel again for my visits to the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hampton Inn &amp; Suites, went out of their way to make sure our family vacation was a memorable one.  We felt right at home and the hotel staff was always courteous, kind, knowledgeable, and polite.  We have a son with autism, and the staff did a wonderful job of making him feel great during our stay there.  I would definitely use this hotel again for my visits to the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r352027710-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>352027710</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>This  hotel has only been open 3 weeks.  The staff when out of their way to make our stay great.  One front desk staff member even made a list of local eating places for us upon our arrival.  The breakfast was really good.  The room was clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This  hotel has only been open 3 weeks.  The staff when out of their way to make our stay great.  One front desk staff member even made a list of local eating places for us upon our arrival.  The breakfast was really good.  The room was clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r352026134-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>352026134</t>
+  </si>
+  <si>
+    <t>New and refreshing</t>
+  </si>
+  <si>
+    <t>This is a new hotel and the decor is so refreshing!!!  It has a calming affect and is so comfortable.  The staff is very professional and friendly.  We enjoyed our stay very much!! The rooms are furnished very nicely and the beds were comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new hotel and the decor is so refreshing!!!  It has a calming affect and is so comfortable.  The staff is very professional and friendly.  We enjoyed our stay very much!! The rooms are furnished very nicely and the beds were comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r350160809-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>350160809</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful but the service could use some refinement.  I would recommend some additional help in this area.  I think greeting the guest as a hhonors member would be good to include telling good bye on the way out.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful but the service could use some refinement.  I would recommend some additional help in this area.  I think greeting the guest as a hhonors member would be good to include telling good bye on the way out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r343989447-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>343989447</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>Great place if you are cruising out of Houston</t>
+  </si>
+  <si>
+    <t>Anthony greeted us very warmly upon our arrival and was very personable and quite knowledgeable. He gave us an excellent restaurant recommendation and responded in a very timely manner to our concern with the air conditioning. 
+There were quite a few couples staying who were catching a Princess cruise from the Houston Port, which is very close to the hotel. They have a shuttle to take you to the port and agreed to let us leave our car in the lot during our cruise. They are brand new so they may not be able to do this in the future if they are full so I would call first. They did not have a driver available when we returned to port but we were the first group off the ship so it was early. It cost us $20 for a taxi back to the hotel (including tip) but we were fine with that. The taxi driver was a bit put out, as he was hoping for a larger fare to the airport. Next time we will call Uber. 
+Since the hotel was brand new, it was very nice and clean. The rooms are huge. I might mention that they have a very nice shower in the bathroom but no tub (which I prefer). That's OK because the cruise ship doesn't have a tub either. 
+The breakfast was good with a lot of choices. We had to wait on fresh brewed...Anthony greeted us very warmly upon our arrival and was very personable and quite knowledgeable. He gave us an excellent restaurant recommendation and responded in a very timely manner to our concern with the air conditioning. There were quite a few couples staying who were catching a Princess cruise from the Houston Port, which is very close to the hotel. They have a shuttle to take you to the port and agreed to let us leave our car in the lot during our cruise. They are brand new so they may not be able to do this in the future if they are full so I would call first. They did not have a driver available when we returned to port but we were the first group off the ship so it was early. It cost us $20 for a taxi back to the hotel (including tip) but we were fine with that. The taxi driver was a bit put out, as he was hoping for a larger fare to the airport. Next time we will call Uber. Since the hotel was brand new, it was very nice and clean. The rooms are huge. I might mention that they have a very nice shower in the bathroom but no tub (which I prefer). That's OK because the cruise ship doesn't have a tub either. The breakfast was good with a lot of choices. We had to wait on fresh brewed coffee but it was worth the wait. The robust coffee was very, very good. They use recycled paper goods and flatware, which is really nice. The cups have super cute little prints on them like full lips and mustaches. The whole motif and decor of the hotel are also super cute. The fact that it's brand-new adds to that. Kelley at the front desk was very nice in helping us with the shuttle. Their staff all has a very good attitude so you can tell the management is very good. I would definitely recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Monica G, Director of Sales at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Anthony greeted us very warmly upon our arrival and was very personable and quite knowledgeable. He gave us an excellent restaurant recommendation and responded in a very timely manner to our concern with the air conditioning. 
+There were quite a few couples staying who were catching a Princess cruise from the Houston Port, which is very close to the hotel. They have a shuttle to take you to the port and agreed to let us leave our car in the lot during our cruise. They are brand new so they may not be able to do this in the future if they are full so I would call first. They did not have a driver available when we returned to port but we were the first group off the ship so it was early. It cost us $20 for a taxi back to the hotel (including tip) but we were fine with that. The taxi driver was a bit put out, as he was hoping for a larger fare to the airport. Next time we will call Uber. 
+Since the hotel was brand new, it was very nice and clean. The rooms are huge. I might mention that they have a very nice shower in the bathroom but no tub (which I prefer). That's OK because the cruise ship doesn't have a tub either. 
+The breakfast was good with a lot of choices. We had to wait on fresh brewed...Anthony greeted us very warmly upon our arrival and was very personable and quite knowledgeable. He gave us an excellent restaurant recommendation and responded in a very timely manner to our concern with the air conditioning. There were quite a few couples staying who were catching a Princess cruise from the Houston Port, which is very close to the hotel. They have a shuttle to take you to the port and agreed to let us leave our car in the lot during our cruise. They are brand new so they may not be able to do this in the future if they are full so I would call first. They did not have a driver available when we returned to port but we were the first group off the ship so it was early. It cost us $20 for a taxi back to the hotel (including tip) but we were fine with that. The taxi driver was a bit put out, as he was hoping for a larger fare to the airport. Next time we will call Uber. Since the hotel was brand new, it was very nice and clean. The rooms are huge. I might mention that they have a very nice shower in the bathroom but no tub (which I prefer). That's OK because the cruise ship doesn't have a tub either. The breakfast was good with a lot of choices. We had to wait on fresh brewed coffee but it was worth the wait. The robust coffee was very, very good. They use recycled paper goods and flatware, which is really nice. The cups have super cute little prints on them like full lips and mustaches. The whole motif and decor of the hotel are also super cute. The fact that it's brand-new adds to that. Kelley at the front desk was very nice in helping us with the shuttle. Their staff all has a very good attitude so you can tell the management is very good. I would definitely recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r343237787-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>343237787</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Numerous Life Safety Code Violations</t>
+  </si>
+  <si>
+    <t>Poor control, obviously no QC on construction, obviously no City Building inspection. The manager did comp. our stay which was fine but was not expected, but was very rude to the attentiveness of the customerMoreShow less</t>
+  </si>
+  <si>
+    <t>Monica G, Manager at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Poor control, obviously no QC on construction, obviously no City Building inspection. The manager did comp. our stay which was fine but was not expected, but was very rude to the attentiveness of the customerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r342503179-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>342503179</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Need to Stay at the Hampton</t>
+  </si>
+  <si>
+    <t>Clean rooms, big room, more towels than 5 could use in a week which is good. The friendly staff greeted us a soon as we walked in, gave us water while they worked with us on while we checked in, One of the best Hamptons I have stayed at. I plan on staying at this Hampton from now on when I am in Laporte Texas from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean rooms, big room, more towels than 5 could use in a week which is good. The friendly staff greeted us a soon as we walked in, gave us water while they worked with us on while we checked in, One of the best Hamptons I have stayed at. I plan on staying at this Hampton from now on when I am in Laporte Texas from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r339271566-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>339271566</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Business stay</t>
+  </si>
+  <si>
+    <t>Very nice hotel. New with big rooms and comfortable beds. This hotel has only been open a couple months and still has the new smell. Great place to stay. I will definitely be staying here when we come back to the area to work. The stuff is very friendly and willing to help with any questions or need. Nice fitness room and pool also.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice hotel. New with big rooms and comfortable beds. This hotel has only been open a couple months and still has the new smell. Great place to stay. I will definitely be staying here when we come back to the area to work. The stuff is very friendly and willing to help with any questions or need. Nice fitness room and pool also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d8869971-r335359135-Hampton_Inn_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>335359135</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Christmas Eve stay</t>
+  </si>
+  <si>
+    <t>Booked online, wonderful staff, 3 wks old hotel, Breakfast was hot and yummy. Bring your house slippers or socks as the bathroom floor was cold and the bathroom was really long and large. The exercise room was large and the equipment was not crowded.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Michael B, General Manager at Hampton Inn &amp; Suites La Porte, responded to this reviewResponded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Booked online, wonderful staff, 3 wks old hotel, Breakfast was hot and yummy. Bring your house slippers or socks as the bathroom floor was cold and the bathroom was really long and large. The exercise room was large and the equipment was not crowded.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2743,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2775,7064 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>178</v>
+      </c>
+      <c r="X21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>178</v>
+      </c>
+      <c r="X22" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>178</v>
+      </c>
+      <c r="X23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>187</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>178</v>
+      </c>
+      <c r="X24" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>217</v>
+      </c>
+      <c r="X25" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>226</v>
+      </c>
+      <c r="X26" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>234</v>
+      </c>
+      <c r="X27" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>242</v>
+      </c>
+      <c r="X28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>258</v>
+      </c>
+      <c r="X30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>267</v>
+      </c>
+      <c r="X31" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>178</v>
+      </c>
+      <c r="X32" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>266</v>
+      </c>
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X33" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>266</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>286</v>
+      </c>
+      <c r="X34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>295</v>
+      </c>
+      <c r="X35" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>303</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>295</v>
+      </c>
+      <c r="X36" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J37" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" t="s">
+        <v>308</v>
+      </c>
+      <c r="L37" t="s">
+        <v>309</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+      <c r="O37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>310</v>
+      </c>
+      <c r="X37" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" t="s">
+        <v>315</v>
+      </c>
+      <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>303</v>
+      </c>
+      <c r="O38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>318</v>
+      </c>
+      <c r="X38" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>321</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>322</v>
+      </c>
+      <c r="J39" t="s">
+        <v>323</v>
+      </c>
+      <c r="K39" t="s">
+        <v>324</v>
+      </c>
+      <c r="L39" t="s">
+        <v>325</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>303</v>
+      </c>
+      <c r="O39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>326</v>
+      </c>
+      <c r="X39" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s">
+        <v>332</v>
+      </c>
+      <c r="L40" t="s">
+        <v>333</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>326</v>
+      </c>
+      <c r="X40" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>336</v>
+      </c>
+      <c r="J41" t="s">
+        <v>337</v>
+      </c>
+      <c r="K41" t="s">
+        <v>338</v>
+      </c>
+      <c r="L41" t="s">
+        <v>339</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>340</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>341</v>
+      </c>
+      <c r="X41" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s">
+        <v>348</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>349</v>
+      </c>
+      <c r="X42" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J43" t="s">
+        <v>354</v>
+      </c>
+      <c r="K43" t="s">
+        <v>355</v>
+      </c>
+      <c r="L43" t="s">
+        <v>356</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>340</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>357</v>
+      </c>
+      <c r="X43" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>359</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>360</v>
+      </c>
+      <c r="J44" t="s">
+        <v>361</v>
+      </c>
+      <c r="K44" t="s">
+        <v>362</v>
+      </c>
+      <c r="L44" t="s">
+        <v>363</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>364</v>
+      </c>
+      <c r="O44" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>365</v>
+      </c>
+      <c r="X44" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>368</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>369</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+      <c r="K45" t="s">
+        <v>371</v>
+      </c>
+      <c r="L45" t="s">
+        <v>372</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>364</v>
+      </c>
+      <c r="O45" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>365</v>
+      </c>
+      <c r="X45" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>374</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>375</v>
+      </c>
+      <c r="J46" t="s">
+        <v>376</v>
+      </c>
+      <c r="K46" t="s">
+        <v>377</v>
+      </c>
+      <c r="L46" t="s">
+        <v>378</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>379</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>380</v>
+      </c>
+      <c r="X46" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>383</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>384</v>
+      </c>
+      <c r="J47" t="s">
+        <v>385</v>
+      </c>
+      <c r="K47" t="s">
+        <v>386</v>
+      </c>
+      <c r="L47" t="s">
+        <v>387</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>379</v>
+      </c>
+      <c r="O47" t="s">
+        <v>81</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>380</v>
+      </c>
+      <c r="X47" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K48" t="s">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s">
+        <v>393</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>394</v>
+      </c>
+      <c r="O48" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>380</v>
+      </c>
+      <c r="X48" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>397</v>
+      </c>
+      <c r="J49" t="s">
+        <v>398</v>
+      </c>
+      <c r="K49" t="s">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s">
+        <v>400</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>394</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>401</v>
+      </c>
+      <c r="X49" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>403</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>404</v>
+      </c>
+      <c r="J50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K50" t="s">
+        <v>406</v>
+      </c>
+      <c r="L50" t="s">
+        <v>407</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>394</v>
+      </c>
+      <c r="O50" t="s">
+        <v>58</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>408</v>
+      </c>
+      <c r="X50" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>411</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>412</v>
+      </c>
+      <c r="J51" t="s">
+        <v>413</v>
+      </c>
+      <c r="K51" t="s">
+        <v>414</v>
+      </c>
+      <c r="L51" t="s">
+        <v>415</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>416</v>
+      </c>
+      <c r="O51" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>417</v>
+      </c>
+      <c r="X51" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>420</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>421</v>
+      </c>
+      <c r="J52" t="s">
+        <v>422</v>
+      </c>
+      <c r="K52" t="s">
+        <v>423</v>
+      </c>
+      <c r="L52" t="s">
+        <v>424</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>416</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>425</v>
+      </c>
+      <c r="X52" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>429</v>
+      </c>
+      <c r="J53" t="s">
+        <v>430</v>
+      </c>
+      <c r="K53" t="s">
+        <v>431</v>
+      </c>
+      <c r="L53" t="s">
+        <v>432</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>416</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>433</v>
+      </c>
+      <c r="X53" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>435</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>436</v>
+      </c>
+      <c r="J54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K54" t="s">
+        <v>438</v>
+      </c>
+      <c r="L54" t="s">
+        <v>439</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>416</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>440</v>
+      </c>
+      <c r="X54" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>444</v>
+      </c>
+      <c r="J55" t="s">
+        <v>445</v>
+      </c>
+      <c r="K55" t="s">
+        <v>446</v>
+      </c>
+      <c r="L55" t="s">
+        <v>447</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>416</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>448</v>
+      </c>
+      <c r="X55" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>451</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>452</v>
+      </c>
+      <c r="J56" t="s">
+        <v>453</v>
+      </c>
+      <c r="K56" t="s">
+        <v>454</v>
+      </c>
+      <c r="L56" t="s">
+        <v>455</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>416</v>
+      </c>
+      <c r="O56" t="s">
+        <v>58</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>456</v>
+      </c>
+      <c r="X56" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>458</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>459</v>
+      </c>
+      <c r="J57" t="s">
+        <v>460</v>
+      </c>
+      <c r="K57" t="s">
+        <v>461</v>
+      </c>
+      <c r="L57" t="s">
+        <v>462</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>463</v>
+      </c>
+      <c r="O57" t="s">
+        <v>81</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>464</v>
+      </c>
+      <c r="X57" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" t="s">
+        <v>469</v>
+      </c>
+      <c r="K58" t="s">
+        <v>470</v>
+      </c>
+      <c r="L58" t="s">
+        <v>471</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>463</v>
+      </c>
+      <c r="O58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>472</v>
+      </c>
+      <c r="X58" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>475</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>476</v>
+      </c>
+      <c r="J59" t="s">
+        <v>477</v>
+      </c>
+      <c r="K59" t="s">
+        <v>478</v>
+      </c>
+      <c r="L59" t="s">
+        <v>479</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>463</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>480</v>
+      </c>
+      <c r="X59" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>483</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>484</v>
+      </c>
+      <c r="J60" t="s">
+        <v>477</v>
+      </c>
+      <c r="K60" t="s">
+        <v>485</v>
+      </c>
+      <c r="L60" t="s">
+        <v>486</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>463</v>
+      </c>
+      <c r="O60" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>480</v>
+      </c>
+      <c r="X60" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>488</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>489</v>
+      </c>
+      <c r="J61" t="s">
+        <v>490</v>
+      </c>
+      <c r="K61" t="s">
+        <v>491</v>
+      </c>
+      <c r="L61" t="s">
+        <v>492</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>463</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>480</v>
+      </c>
+      <c r="X61" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>494</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>495</v>
+      </c>
+      <c r="J62" t="s">
+        <v>496</v>
+      </c>
+      <c r="K62" t="s">
+        <v>497</v>
+      </c>
+      <c r="L62" t="s">
+        <v>498</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>499</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>500</v>
+      </c>
+      <c r="X62" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>503</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>504</v>
+      </c>
+      <c r="J63" t="s">
+        <v>505</v>
+      </c>
+      <c r="K63" t="s">
+        <v>223</v>
+      </c>
+      <c r="L63" t="s">
+        <v>506</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>499</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>507</v>
+      </c>
+      <c r="X63" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>510</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>511</v>
+      </c>
+      <c r="J64" t="s">
+        <v>512</v>
+      </c>
+      <c r="K64" t="s">
+        <v>513</v>
+      </c>
+      <c r="L64" t="s">
+        <v>514</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>499</v>
+      </c>
+      <c r="O64" t="s">
+        <v>58</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>515</v>
+      </c>
+      <c r="X64" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>517</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>518</v>
+      </c>
+      <c r="J65" t="s">
+        <v>519</v>
+      </c>
+      <c r="K65" t="s">
+        <v>520</v>
+      </c>
+      <c r="L65" t="s">
+        <v>521</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>499</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>522</v>
+      </c>
+      <c r="X65" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>525</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>526</v>
+      </c>
+      <c r="J66" t="s">
+        <v>527</v>
+      </c>
+      <c r="K66" t="s">
+        <v>528</v>
+      </c>
+      <c r="L66" t="s">
+        <v>529</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>530</v>
+      </c>
+      <c r="O66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>531</v>
+      </c>
+      <c r="X66" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>534</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>535</v>
+      </c>
+      <c r="J67" t="s">
+        <v>536</v>
+      </c>
+      <c r="K67" t="s">
+        <v>537</v>
+      </c>
+      <c r="L67" t="s">
+        <v>538</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>530</v>
+      </c>
+      <c r="O67" t="s">
+        <v>81</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>531</v>
+      </c>
+      <c r="X67" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>540</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>541</v>
+      </c>
+      <c r="J68" t="s">
+        <v>542</v>
+      </c>
+      <c r="K68" t="s">
+        <v>543</v>
+      </c>
+      <c r="L68" t="s">
+        <v>544</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>530</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>531</v>
+      </c>
+      <c r="X68" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>546</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>547</v>
+      </c>
+      <c r="J69" t="s">
+        <v>542</v>
+      </c>
+      <c r="K69" t="s">
+        <v>548</v>
+      </c>
+      <c r="L69" t="s">
+        <v>549</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>530</v>
+      </c>
+      <c r="O69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>531</v>
+      </c>
+      <c r="X69" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>551</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>552</v>
+      </c>
+      <c r="J70" t="s">
+        <v>553</v>
+      </c>
+      <c r="K70" t="s">
+        <v>554</v>
+      </c>
+      <c r="L70" t="s">
+        <v>555</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>530</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>556</v>
+      </c>
+      <c r="X70" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>559</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>560</v>
+      </c>
+      <c r="J71" t="s">
+        <v>561</v>
+      </c>
+      <c r="K71" t="s">
+        <v>562</v>
+      </c>
+      <c r="L71" t="s">
+        <v>563</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>530</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>564</v>
+      </c>
+      <c r="X71" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>566</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>567</v>
+      </c>
+      <c r="J72" t="s">
+        <v>561</v>
+      </c>
+      <c r="K72" t="s">
+        <v>568</v>
+      </c>
+      <c r="L72" t="s">
+        <v>569</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>530</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>556</v>
+      </c>
+      <c r="X72" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>571</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>572</v>
+      </c>
+      <c r="J73" t="s">
+        <v>573</v>
+      </c>
+      <c r="K73" t="s">
+        <v>548</v>
+      </c>
+      <c r="L73" t="s">
+        <v>574</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>530</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>575</v>
+      </c>
+      <c r="X73" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>577</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>578</v>
+      </c>
+      <c r="J74" t="s">
+        <v>579</v>
+      </c>
+      <c r="K74" t="s">
+        <v>580</v>
+      </c>
+      <c r="L74" t="s">
+        <v>581</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>582</v>
+      </c>
+      <c r="O74" t="s">
+        <v>58</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>583</v>
+      </c>
+      <c r="X74" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>586</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>587</v>
+      </c>
+      <c r="J75" t="s">
+        <v>588</v>
+      </c>
+      <c r="K75" t="s">
+        <v>589</v>
+      </c>
+      <c r="L75" t="s">
+        <v>590</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>582</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>591</v>
+      </c>
+      <c r="X75" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>593</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>594</v>
+      </c>
+      <c r="J76" t="s">
+        <v>588</v>
+      </c>
+      <c r="K76" t="s">
+        <v>595</v>
+      </c>
+      <c r="L76" t="s">
+        <v>596</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>582</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>591</v>
+      </c>
+      <c r="X76" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>598</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>599</v>
+      </c>
+      <c r="J77" t="s">
+        <v>600</v>
+      </c>
+      <c r="K77" t="s">
+        <v>601</v>
+      </c>
+      <c r="L77" t="s">
+        <v>602</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>582</v>
+      </c>
+      <c r="O77" t="s">
+        <v>187</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>583</v>
+      </c>
+      <c r="X77" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>604</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>605</v>
+      </c>
+      <c r="J78" t="s">
+        <v>606</v>
+      </c>
+      <c r="K78" t="s">
+        <v>607</v>
+      </c>
+      <c r="L78" t="s">
+        <v>608</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>582</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>591</v>
+      </c>
+      <c r="X78" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>610</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>611</v>
+      </c>
+      <c r="J79" t="s">
+        <v>606</v>
+      </c>
+      <c r="K79" t="s">
+        <v>612</v>
+      </c>
+      <c r="L79" t="s">
+        <v>613</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>582</v>
+      </c>
+      <c r="O79" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>591</v>
+      </c>
+      <c r="X79" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>615</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>616</v>
+      </c>
+      <c r="J80" t="s">
+        <v>617</v>
+      </c>
+      <c r="K80" t="s">
+        <v>618</v>
+      </c>
+      <c r="L80" t="s">
+        <v>619</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>582</v>
+      </c>
+      <c r="O80" t="s">
+        <v>58</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>620</v>
+      </c>
+      <c r="X80" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>623</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>624</v>
+      </c>
+      <c r="J81" t="s">
+        <v>625</v>
+      </c>
+      <c r="K81" t="s">
+        <v>626</v>
+      </c>
+      <c r="L81" t="s">
+        <v>627</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>628</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>629</v>
+      </c>
+      <c r="X81" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>632</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>633</v>
+      </c>
+      <c r="J82" t="s">
+        <v>634</v>
+      </c>
+      <c r="K82" t="s">
+        <v>635</v>
+      </c>
+      <c r="L82" t="s">
+        <v>636</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>628</v>
+      </c>
+      <c r="O82" t="s">
+        <v>58</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>637</v>
+      </c>
+      <c r="X82" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>639</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>640</v>
+      </c>
+      <c r="J83" t="s">
+        <v>641</v>
+      </c>
+      <c r="K83" t="s">
+        <v>642</v>
+      </c>
+      <c r="L83" t="s">
+        <v>643</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>628</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>644</v>
+      </c>
+      <c r="X83" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>648</v>
+      </c>
+      <c r="J84" t="s">
+        <v>649</v>
+      </c>
+      <c r="K84" t="s">
+        <v>650</v>
+      </c>
+      <c r="L84" t="s">
+        <v>651</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>628</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>652</v>
+      </c>
+      <c r="X84" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>655</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>656</v>
+      </c>
+      <c r="J85" t="s">
+        <v>657</v>
+      </c>
+      <c r="K85" t="s">
+        <v>56</v>
+      </c>
+      <c r="L85" t="s">
+        <v>658</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>628</v>
+      </c>
+      <c r="O85" t="s">
+        <v>58</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>652</v>
+      </c>
+      <c r="X85" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>660</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>661</v>
+      </c>
+      <c r="J86" t="s">
+        <v>662</v>
+      </c>
+      <c r="K86" t="s">
+        <v>663</v>
+      </c>
+      <c r="L86" t="s">
+        <v>664</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>665</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>666</v>
+      </c>
+      <c r="X86" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>669</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>670</v>
+      </c>
+      <c r="J87" t="s">
+        <v>671</v>
+      </c>
+      <c r="K87" t="s">
+        <v>672</v>
+      </c>
+      <c r="L87" t="s">
+        <v>673</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>665</v>
+      </c>
+      <c r="O87" t="s">
+        <v>81</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>674</v>
+      </c>
+      <c r="X87" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>676</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>677</v>
+      </c>
+      <c r="J88" t="s">
+        <v>678</v>
+      </c>
+      <c r="K88" t="s">
+        <v>679</v>
+      </c>
+      <c r="L88" t="s">
+        <v>680</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>665</v>
+      </c>
+      <c r="O88" t="s">
+        <v>81</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>681</v>
+      </c>
+      <c r="X88" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>683</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>684</v>
+      </c>
+      <c r="J89" t="s">
+        <v>685</v>
+      </c>
+      <c r="K89" t="s">
+        <v>686</v>
+      </c>
+      <c r="L89" t="s">
+        <v>687</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>665</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>688</v>
+      </c>
+      <c r="X89" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>690</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>691</v>
+      </c>
+      <c r="J90" t="s">
+        <v>692</v>
+      </c>
+      <c r="K90" t="s">
+        <v>693</v>
+      </c>
+      <c r="L90" t="s">
+        <v>694</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>695</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>688</v>
+      </c>
+      <c r="X90" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>697</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>698</v>
+      </c>
+      <c r="J91" t="s">
+        <v>692</v>
+      </c>
+      <c r="K91" t="s">
+        <v>215</v>
+      </c>
+      <c r="L91" t="s">
+        <v>699</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>665</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>700</v>
+      </c>
+      <c r="X91" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>703</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>704</v>
+      </c>
+      <c r="J92" t="s">
+        <v>705</v>
+      </c>
+      <c r="K92" t="s">
+        <v>706</v>
+      </c>
+      <c r="L92" t="s">
+        <v>707</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>695</v>
+      </c>
+      <c r="O92" t="s">
+        <v>81</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>700</v>
+      </c>
+      <c r="X92" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>709</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>710</v>
+      </c>
+      <c r="J93" t="s">
+        <v>711</v>
+      </c>
+      <c r="K93" t="s">
+        <v>712</v>
+      </c>
+      <c r="L93" t="s">
+        <v>713</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>695</v>
+      </c>
+      <c r="O93" t="s">
+        <v>81</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>700</v>
+      </c>
+      <c r="X93" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>715</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>716</v>
+      </c>
+      <c r="J94" t="s">
+        <v>717</v>
+      </c>
+      <c r="K94" t="s">
+        <v>718</v>
+      </c>
+      <c r="L94" t="s">
+        <v>719</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>695</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>700</v>
+      </c>
+      <c r="X94" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>721</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>722</v>
+      </c>
+      <c r="J95" t="s">
+        <v>723</v>
+      </c>
+      <c r="K95" t="s">
+        <v>724</v>
+      </c>
+      <c r="L95" t="s">
+        <v>725</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>726</v>
+      </c>
+      <c r="O95" t="s">
+        <v>58</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>178</v>
+      </c>
+      <c r="X95" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>728</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>729</v>
+      </c>
+      <c r="J96" t="s">
+        <v>723</v>
+      </c>
+      <c r="K96" t="s">
+        <v>730</v>
+      </c>
+      <c r="L96" t="s">
+        <v>731</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>726</v>
+      </c>
+      <c r="O96" t="s">
+        <v>58</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>178</v>
+      </c>
+      <c r="X96" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>733</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>734</v>
+      </c>
+      <c r="J97" t="s">
+        <v>735</v>
+      </c>
+      <c r="K97" t="s">
+        <v>736</v>
+      </c>
+      <c r="L97" t="s">
+        <v>737</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>726</v>
+      </c>
+      <c r="O97" t="s">
+        <v>81</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>178</v>
+      </c>
+      <c r="X97" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>739</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>740</v>
+      </c>
+      <c r="J98" t="s">
+        <v>741</v>
+      </c>
+      <c r="K98" t="s">
+        <v>742</v>
+      </c>
+      <c r="L98" t="s">
+        <v>743</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>744</v>
+      </c>
+      <c r="O98" t="s">
+        <v>58</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>745</v>
+      </c>
+      <c r="X98" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>748</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>749</v>
+      </c>
+      <c r="J99" t="s">
+        <v>750</v>
+      </c>
+      <c r="K99" t="s">
+        <v>751</v>
+      </c>
+      <c r="L99" t="s">
+        <v>752</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>744</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>753</v>
+      </c>
+      <c r="X99" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>755</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>756</v>
+      </c>
+      <c r="J100" t="s">
+        <v>757</v>
+      </c>
+      <c r="K100" t="s">
+        <v>758</v>
+      </c>
+      <c r="L100" t="s">
+        <v>759</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>744</v>
+      </c>
+      <c r="O100" t="s">
+        <v>81</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>745</v>
+      </c>
+      <c r="X100" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>761</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>762</v>
+      </c>
+      <c r="J101" t="s">
+        <v>763</v>
+      </c>
+      <c r="K101" t="s">
+        <v>764</v>
+      </c>
+      <c r="L101" t="s">
+        <v>765</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>744</v>
+      </c>
+      <c r="O101" t="s">
+        <v>81</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>178</v>
+      </c>
+      <c r="X101" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>64590</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>767</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>768</v>
+      </c>
+      <c r="J102" t="s">
+        <v>769</v>
+      </c>
+      <c r="K102" t="s">
+        <v>770</v>
+      </c>
+      <c r="L102" t="s">
+        <v>771</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>772</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>773</v>
+      </c>
+      <c r="X102" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
